--- a/Data_preparation/datasets/final_data/NORTHROP_GRUMMAN_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/NORTHROP_GRUMMAN_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>134.8845040186177</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>129.7870483398438</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>139.8218723361719</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>128.7254346349996</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>142720067</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>31935397407</v>
@@ -888,19 +780,19 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>135.1842254137789</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>146.5060272216797</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>149.4613873512652</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>133.8801487392348</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>142720067</v>
       </c>
       <c r="I3" t="s">
         <v>42</v>
@@ -1016,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>141.2568559303741</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>159.7649078369141</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>165.0748087824118</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>138.4317125792599</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>142720067</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>31097788030</v>
@@ -1144,22 +1036,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>158.9351089023986</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>158.1488952636719</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>165.1051901296775</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>149.551805015991</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>142720067</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>34435741782</v>
@@ -1272,22 +1164,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>168.7124312880878</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>177.0111694335938</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>179.3540495369891</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>167.914316794299</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>142720067</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>35808663238</v>
@@ -1400,22 +1292,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>191.7541241273548</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>186.6952667236328</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>193.1502623061722</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>185.8248238563632</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>142720067</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>40110786760</v>
@@ -1528,22 +1420,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>184.3420841267015</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>198.1893768310547</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>199.0548326250768</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>183.493941146186</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>142720067</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>38206050860</v>
@@ -1656,22 +1548,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>203.336216709597</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>198.9759063720703</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>206.6542120713813</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>194.4592567403336</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>142720067</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>40995003633</v>
@@ -1784,22 +1676,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>207.1169090338772</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>214.4224090576172</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>217.944384457451</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>205.0072089886013</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>142720067</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>41526722723</v>
@@ -1912,22 +1804,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>225.3783092230785</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>230.2791748046875</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>233.499733695505</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>224.608169769281</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>142720067</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>44814576814</v>
@@ -2040,22 +1932,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>253.4178197543208</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>259.5929565429688</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>269.3255944634218</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>252.2934714009841</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>142720067</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>50090412284</v>
@@ -2168,22 +2060,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>270.8566916840437</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>300.0970458984375</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>303.331298951087</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>267.2082431760531</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>142720067</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>53426439187</v>
@@ -2296,22 +2188,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>308.7819250257306</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>284.7247924804688</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>319.0643453429059</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>281.1617551693087</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>142720067</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>60777457675</v>
@@ -2424,22 +2316,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>271.929628001382</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>266.6496887207031</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>288.6479191999652</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>254.7587628413754</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>142720067</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>53658007878</v>
@@ -2552,22 +2444,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>283.3748506355448</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>233.391128540039</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>286.6447438813564</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>224.2229796754844</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>142720067</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>55261549488</v>
@@ -2680,22 +2572,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>215.8703942910444</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>246.643798828125</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>254.6996663214705</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>212.2094533414537</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>142720067</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>42519466979</v>
@@ -2808,22 +2700,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>243.7046294130246</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>260.5849914550781</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>265.0882280991191</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>237.7452635963541</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>142720067</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>45761231887</v>
@@ -2936,22 +2828,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>293.3756624858548</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>311.944091796875</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>324.0311547663087</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>286.9484831492365</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>142720067</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>54863974282</v>
@@ -3064,22 +2956,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>340.6062015108164</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>319.32568359375</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>341.6208497043885</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>308.2007435049304</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>142720067</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>63413782884</v>
@@ -3192,22 +3084,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>313.2135399240307</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>340.6119995117188</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>350.1055255200535</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>312.4678733494119</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>142720067</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>57970213801</v>
@@ -3308,22 +3200,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>268.184560771225</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>301.7886352539062</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>325.9284228137339</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>265.236665383571</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>142720067</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>50718613682</v>
@@ -3436,22 +3328,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>283.0903419627515</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>297.8832397460937</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>301.9618063213848</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>261.6617354875416</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>142720067</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>51251087311</v>
@@ -3564,22 +3456,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>292.0761147463565</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>266.7386169433594</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>296.7883512441894</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>262.4221283191555</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>142720067</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>52596619736</v>
@@ -3692,22 +3584,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>281.1592962103258</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>265.0148315429688</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>285.5698816732484</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>261.5658932780586</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>142720067</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>50801694035</v>
@@ -3808,22 +3700,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>300.141566381451</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>329.3157958984375</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>331.5828406463527</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>298.5341858912371</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>142720067</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>53956737798</v>
@@ -3936,22 +3828,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>340.1320590455784</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>338.7231140136719</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>348.9495833117484</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>327.1717295298723</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>142720067</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>58498131823</v>
@@ -4064,22 +3956,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>338.9704786111626</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>334.7442321777344</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>382.3573377193686</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>329.8526659311078</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>142720067</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>57663293445</v>
@@ -4192,22 +4084,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>364.1859519933977</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>348.1389770507812</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>384.91051694712</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>345.2966523595877</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>142720067</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>61365165476</v>
@@ -4320,22 +4212,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>421.9831395971285</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>415.1986083984375</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>450.9733606086371</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>408.5747265843274</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>142720067</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>69811906923</v>
@@ -4448,22 +4340,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>453.8910402326041</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>454.2040100097656</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>462.7398967130165</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>411.4961246955878</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>142720067</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>74391123658</v>
@@ -4576,22 +4468,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>453.4574284390929</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>522.5267944335938</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>529.436594916117</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>440.7704264249136</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>142720067</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>72763818146</v>
@@ -4704,22 +4596,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>520.3574169372527</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>427.8443603515625</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>523.1076040263433</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>411.5151463665732</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>142720067</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>83976011435</v>
@@ -4832,22 +4724,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>444.0294556903269</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>442.0838928222656</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>463.2934207338669</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>424.5738270097146</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>142720067</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>70667802458</v>
@@ -4960,22 +4852,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>436.1446182208199</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>428.3382873535156</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>444.701772488369</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>415.4496223149758</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>142720067</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>69217535031</v>
@@ -5088,22 +4980,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>425.7623497286203</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>455.7506408691406</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>480.3638846399089</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>400.7720923602251</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>142720067</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>66600613182</v>
@@ -5216,22 +5108,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>455.3914992951702</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>433.6211547851562</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>469.6009331883021</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>413.4716803220234</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>142720067</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>70592050105</v>
@@ -5332,22 +5224,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>466.2285226483278</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>472.69970703125</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>478.1281152471265</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>434.8763259579104</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>142720067</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>71816090555</v>
@@ -5460,22 +5352,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>428.3641692447456</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>474.0981140136719</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>479.0513169851881</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>413.7688510475956</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>142720067</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>64516226986</v>
@@ -5588,22 +5480,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>519.076124522949</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>500.2463684082031</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>545.9940366958643</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>493.1999694655907</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>142720067</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>77227736560</v>
@@ -5716,22 +5608,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>465.8143382725705</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>480.8944091796875</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>501.0275138424837</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>444.9114706757644</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>142720067</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>68373367047</v>
@@ -5832,22 +5724,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>510.0833043890325</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>482.2861938476562</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>540.0415861670613</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>446.2312164266363</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>142720067</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>74116344965</v>
@@ -5960,22 +5852,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>497.9926921320322</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>574.3525390625</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>575.1195439429852</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>487.603502808621</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>142720067</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>71961213936</v>
@@ -6088,22 +5980,22 @@
         <v>45930</v>
       </c>
       <c r="D44">
-        <v>347.5400085449219</v>
+        <v>607.219970703125</v>
       </c>
       <c r="E44">
-        <v>348.1099853515625</v>
+        <v>605.5800170898438</v>
       </c>
       <c r="F44">
-        <v>354.9800109863281</v>
+        <v>640.9000244140625</v>
       </c>
       <c r="G44">
-        <v>342.1799926757812</v>
+        <v>571.3599853515625</v>
       </c>
       <c r="H44">
-        <v>112434397</v>
+        <v>142720067</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>87244254592</v>
